--- a/modified_tables/table_15.xlsx
+++ b/modified_tables/table_15.xlsx
@@ -14,33 +14,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>385,193</t>
-  </si>
-  <si>
-    <t>235,319</t>
-  </si>
-  <si>
-    <t>83</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Total paper</t>
+  </si>
+  <si>
+    <t>536,951</t>
+  </si>
+  <si>
+    <t>583,314</t>
+  </si>
+  <si>
+    <t>666,774</t>
+  </si>
+  <si>
+    <t>Individual paper (kg per FTE)</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Total electrical/toner/lighting</t>
+  </si>
+  <si>
+    <t>6,101</t>
+  </si>
+  <si>
+    <t>10,244</t>
+  </si>
+  <si>
+    <t>19,814</t>
+  </si>
+  <si>
+    <t>Individual electrical/toner/lighting (kg per FTE)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Total mixed packaging</t>
+  </si>
+  <si>
+    <t>79,504</t>
+  </si>
+  <si>
+    <t>65,412</t>
+  </si>
+  <si>
+    <t>75,049</t>
+  </si>
+  <si>
+    <t>Individual mixed packaging (kg per FTE)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Total non-recyclable</t>
+  </si>
+  <si>
+    <t>217,831</t>
+  </si>
+  <si>
+    <t>174,650</t>
+  </si>
+  <si>
+    <t>164,945</t>
+  </si>
+  <si>
+    <t>Individual non-recyclable (kg per FTE)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Total commercial waste</t>
+  </si>
+  <si>
+    <t>226,020</t>
+  </si>
+  <si>
+    <t>234,123</t>
+  </si>
+  <si>
+    <t>198,230</t>
+  </si>
+  <si>
+    <t>Individual commercial waste (kg per FTE)</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>2,727,635</t>
-  </si>
-  <si>
-    <t>2,631,789</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>558</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Total kitchen waste</t>
+  </si>
+  <si>
+    <t>47,620</t>
+  </si>
+  <si>
+    <t>46,870</t>
+  </si>
+  <si>
+    <t>45,615</t>
+  </si>
+  <si>
+    <t>Individual kitchen waste (kg per FTE)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Total waste</t>
+  </si>
+  <si>
+    <t>1,114,027</t>
+  </si>
+  <si>
+    <t>1,114,613</t>
+  </si>
+  <si>
+    <t>1,170,427</t>
+  </si>
+  <si>
+    <t>Total individual waste (kg per FTE)</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>245</t>
   </si>
 </sst>
 </file>
@@ -398,50 +545,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
